--- a/相关/测试记录/20180817.xlsx
+++ b/相关/测试记录/20180817.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="11505"/>
+    <workbookView windowWidth="28455" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>序号</t>
   </si>
@@ -390,6 +390,9 @@
     <t>首页</t>
   </si>
   <si>
+    <t>问题无法重现</t>
+  </si>
+  <si>
     <t>点击登录后 登陆后有错误提示</t>
   </si>
   <si>
@@ -405,6 +408,9 @@
     <t>账户信息</t>
   </si>
   <si>
+    <t>需后台查看问题</t>
+  </si>
+  <si>
     <t>无法更改保存</t>
   </si>
   <si>
@@ -417,6 +423,9 @@
     <t>鼠标移动到首页的快捷入口 背景色许更改</t>
   </si>
   <si>
+    <t>暂无接口</t>
+  </si>
+  <si>
     <t>快捷入口下 添加最新公告栏  清关批次等</t>
   </si>
   <si>
@@ -454,6 +463,9 @@
   </si>
   <si>
     <t>包裹-包裹查询-已入库</t>
+  </si>
+  <si>
+    <t>需后台配合单独提供一个置顶接口</t>
   </si>
   <si>
     <t>缺少置顶按钮</t>
@@ -488,10 +500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -568,6 +580,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -575,7 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,8 +607,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,15 +686,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,78 +715,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,7 +750,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,19 +822,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,61 +894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,72 +934,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -932,26 +944,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,23 +977,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,11 +1018,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,145 +1049,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2075,7 +2087,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3413,8 +3425,11 @@
       <c r="B72" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="C72" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E72">
         <v>8.17</v>
@@ -3428,7 +3443,7 @@
         <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73">
         <v>8.17</v>
@@ -3439,10 +3454,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74">
         <v>8.17</v>
@@ -3453,10 +3468,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75">
         <v>8.17</v>
@@ -3467,10 +3485,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76">
         <v>8.17</v>
@@ -3484,7 +3502,7 @@
         <v>102</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77">
         <v>8.17</v>
@@ -3497,8 +3515,11 @@
       <c r="B78" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="C78" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E78">
         <v>8.17</v>
@@ -3512,7 +3533,7 @@
         <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E79">
         <v>8.17</v>
@@ -3522,11 +3543,11 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>124</v>
+      <c r="B80" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E80">
         <v>8.17</v>
@@ -3537,10 +3558,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E81">
         <v>8.17</v>
@@ -3551,10 +3572,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E82">
         <v>8.17</v>
@@ -3565,10 +3586,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E83">
         <v>8.17</v>
@@ -3579,10 +3600,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E84">
         <v>8.17</v>
@@ -3596,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E85">
         <v>8.17</v>
@@ -3607,10 +3628,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E86">
         <v>8.17</v>
@@ -3621,10 +3642,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E87">
         <v>8.17</v>
@@ -3634,11 +3655,14 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>134</v>
+      <c r="B88" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E88">
         <v>8.17</v>
@@ -3649,10 +3673,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E89">
         <v>8.17</v>
@@ -3666,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E90">
         <v>8.17</v>
@@ -3677,7 +3701,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E91">
         <v>8.17</v>
@@ -3688,10 +3712,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E92">
         <v>8.17</v>
@@ -3702,10 +3726,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E93">
         <v>8.17</v>
@@ -3716,10 +3740,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E94">
         <v>8.17</v>
@@ -3730,10 +3754,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E95">
         <v>8.17</v>
